--- a/snowmaker/SnowMaker_V1.0.xlsx
+++ b/snowmaker/SnowMaker_V1.0.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="SnowMaker_V1.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
     <t>Part</t>
   </si>
@@ -457,282 +457,6 @@
     <t>SUB-D</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>FFKDS/V1-5.08_FIRST</t>
-  </si>
-  <si>
-    <t>FFKDS/V1-5</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>FFKDS/V1-5.08_MIDDLE</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
-  </si>
-  <si>
-    <t>X29</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>X37</t>
-  </si>
-  <si>
-    <t>X38</t>
-  </si>
-  <si>
-    <t>X39</t>
-  </si>
-  <si>
-    <t>X40</t>
-  </si>
-  <si>
-    <t>X41</t>
-  </si>
-  <si>
-    <t>FFKDS/V1-5.08_LAST</t>
-  </si>
-  <si>
-    <t>X42</t>
-  </si>
-  <si>
-    <t>X43</t>
-  </si>
-  <si>
-    <t>X44</t>
-  </si>
-  <si>
-    <t>X45</t>
-  </si>
-  <si>
-    <t>X46</t>
-  </si>
-  <si>
-    <t>X47</t>
-  </si>
-  <si>
-    <t>X48</t>
-  </si>
-  <si>
-    <t>X49</t>
-  </si>
-  <si>
-    <t>X50</t>
-  </si>
-  <si>
-    <t>X51</t>
-  </si>
-  <si>
-    <t>X52</t>
-  </si>
-  <si>
-    <t>X53</t>
-  </si>
-  <si>
-    <t>X54</t>
-  </si>
-  <si>
-    <t>X55</t>
-  </si>
-  <si>
-    <t>X56</t>
-  </si>
-  <si>
-    <t>X57</t>
-  </si>
-  <si>
-    <t>X58</t>
-  </si>
-  <si>
-    <t>X59</t>
-  </si>
-  <si>
-    <t>X60</t>
-  </si>
-  <si>
-    <t>X61</t>
-  </si>
-  <si>
-    <t>X62</t>
-  </si>
-  <si>
-    <t>X63</t>
-  </si>
-  <si>
-    <t>X64</t>
-  </si>
-  <si>
-    <t>X65</t>
-  </si>
-  <si>
-    <t>X66</t>
-  </si>
-  <si>
-    <t>X67</t>
-  </si>
-  <si>
-    <t>X68</t>
-  </si>
-  <si>
-    <t>X69</t>
-  </si>
-  <si>
-    <t>X70</t>
-  </si>
-  <si>
-    <t>X71</t>
-  </si>
-  <si>
-    <t>X72</t>
-  </si>
-  <si>
-    <t>X73</t>
-  </si>
-  <si>
-    <t>X74</t>
-  </si>
-  <si>
-    <t>X75</t>
-  </si>
-  <si>
-    <t>X76</t>
-  </si>
-  <si>
-    <t>X77</t>
-  </si>
-  <si>
-    <t>X78</t>
-  </si>
-  <si>
-    <t>X79</t>
-  </si>
-  <si>
-    <t>X80</t>
-  </si>
-  <si>
-    <t>X81</t>
-  </si>
-  <si>
-    <t>X82</t>
-  </si>
-  <si>
-    <t>X83</t>
-  </si>
-  <si>
-    <t>X84</t>
-  </si>
-  <si>
-    <t>X85</t>
-  </si>
-  <si>
-    <t>X86</t>
-  </si>
-  <si>
-    <t>X87</t>
-  </si>
-  <si>
-    <t>X88</t>
-  </si>
-  <si>
-    <t>X89</t>
-  </si>
-  <si>
     <t>XT1</t>
   </si>
   <si>
@@ -946,13 +670,66 @@
   <si>
     <t>L5、L6、L10</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFKDS/V1-5.08-40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFKDS/V1-5.08-12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFKDS/V1-5.08-24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色底板</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度108.2mm  长98+2+2mm</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡片(左)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度108.2mm</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡片(右)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>自攻螺丝</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*16</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,8 +890,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,8 +1111,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1410,8 +1239,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,8 +1382,12 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,8 +1397,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1569,6 +1442,7 @@
     <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1583,6 +1457,7 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="千位分隔" xfId="42" builtinId="3"/>
     <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1594,7 +1469,35 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="53"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1884,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:E102"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1914,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1942,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1976,7 +1879,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1993,10 +1896,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2010,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -2027,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -2044,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -2061,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -2078,7 +1981,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -2106,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -2123,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2235,7 +2138,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
@@ -2249,7 +2152,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -2266,7 +2169,7 @@
         <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
         <v>55</v>
@@ -2300,7 +2203,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -2317,7 +2220,7 @@
         <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
@@ -2334,7 +2237,7 @@
         <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
         <v>66</v>
@@ -2439,7 +2342,7 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
@@ -2496,7 +2399,7 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>95</v>
@@ -2547,7 +2450,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
         <v>102</v>
@@ -2564,7 +2467,7 @@
         <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
         <v>105</v>
@@ -2581,7 +2484,7 @@
         <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
         <v>108</v>
@@ -2624,12 +2527,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
         <v>114</v>
@@ -2641,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2649,7 +2552,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
         <v>116</v>
@@ -2666,7 +2569,7 @@
         <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
         <v>118</v>
@@ -2697,7 +2600,7 @@
         <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
         <v>120</v>
@@ -2714,7 +2617,7 @@
         <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
         <v>124</v>
@@ -2731,7 +2634,7 @@
         <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
         <v>129</v>
@@ -2782,7 +2685,7 @@
         <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
         <v>122</v>
@@ -2799,7 +2702,7 @@
         <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
         <v>134</v>
@@ -2816,7 +2719,7 @@
         <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
         <v>136</v>
@@ -2833,7 +2736,7 @@
         <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
         <v>123</v>
@@ -2850,7 +2753,7 @@
         <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
         <v>135</v>
@@ -2884,7 +2787,7 @@
         <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
         <v>137</v>
@@ -2901,7 +2804,7 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
@@ -2918,7 +2821,7 @@
         <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
         <v>140</v>
@@ -2935,7 +2838,7 @@
         <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
         <v>139</v>
@@ -2975,7 +2878,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
         <v>145</v>
@@ -2989,36 +2892,36 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -3026,22 +2929,22 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3063,1294 +2966,217 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>240</v>
+        <v>148</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
+        <v>150</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>148</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>148</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" t="s">
-        <v>151</v>
-      </c>
-      <c r="D110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>151</v>
-      </c>
-      <c r="B111" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>151</v>
-      </c>
-      <c r="B112" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" t="s">
-        <v>151</v>
-      </c>
-      <c r="D112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>151</v>
-      </c>
-      <c r="B114" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C114" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>151</v>
-      </c>
-      <c r="B116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" t="s">
-        <v>151</v>
-      </c>
-      <c r="D117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" t="s">
-        <v>159</v>
-      </c>
-      <c r="C118" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>151</v>
-      </c>
-      <c r="B119" t="s">
-        <v>160</v>
-      </c>
-      <c r="C119" t="s">
-        <v>151</v>
-      </c>
-      <c r="D119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>151</v>
-      </c>
-      <c r="B120" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" t="s">
-        <v>151</v>
-      </c>
-      <c r="D120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>151</v>
-      </c>
-      <c r="B121" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" t="s">
-        <v>151</v>
-      </c>
-      <c r="D121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>151</v>
-      </c>
-      <c r="B122" t="s">
-        <v>163</v>
-      </c>
-      <c r="C122" t="s">
-        <v>151</v>
-      </c>
-      <c r="D122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>151</v>
-      </c>
-      <c r="B123" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" t="s">
-        <v>151</v>
-      </c>
-      <c r="D124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>151</v>
-      </c>
-      <c r="B125" t="s">
-        <v>166</v>
-      </c>
-      <c r="C125" t="s">
-        <v>151</v>
-      </c>
-      <c r="D125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" t="s">
-        <v>167</v>
-      </c>
-      <c r="C126" t="s">
-        <v>151</v>
-      </c>
-      <c r="D126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>151</v>
-      </c>
-      <c r="B127" t="s">
-        <v>168</v>
-      </c>
-      <c r="C127" t="s">
-        <v>151</v>
-      </c>
-      <c r="D127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>151</v>
-      </c>
-      <c r="B129" t="s">
-        <v>170</v>
-      </c>
-      <c r="C129" t="s">
-        <v>151</v>
-      </c>
-      <c r="D129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" t="s">
-        <v>151</v>
-      </c>
-      <c r="D130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>151</v>
-      </c>
-      <c r="B131" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" t="s">
-        <v>151</v>
-      </c>
-      <c r="D131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" t="s">
-        <v>151</v>
-      </c>
-      <c r="D132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>151</v>
-      </c>
-      <c r="B133" t="s">
-        <v>174</v>
-      </c>
-      <c r="C133" t="s">
-        <v>151</v>
-      </c>
-      <c r="D133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>151</v>
-      </c>
-      <c r="B134" t="s">
-        <v>175</v>
-      </c>
-      <c r="C134" t="s">
-        <v>151</v>
-      </c>
-      <c r="D134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>151</v>
-      </c>
-      <c r="B135" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" t="s">
-        <v>151</v>
-      </c>
-      <c r="D135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>151</v>
-      </c>
-      <c r="B136" t="s">
-        <v>177</v>
-      </c>
-      <c r="C136" t="s">
-        <v>151</v>
-      </c>
-      <c r="D136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>151</v>
-      </c>
-      <c r="B137" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" t="s">
-        <v>151</v>
-      </c>
-      <c r="D137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" t="s">
-        <v>179</v>
-      </c>
-      <c r="C138" t="s">
-        <v>151</v>
-      </c>
-      <c r="D138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>151</v>
-      </c>
-      <c r="B139" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C140" t="s">
-        <v>151</v>
-      </c>
-      <c r="D140" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>151</v>
-      </c>
-      <c r="B141" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" t="s">
-        <v>184</v>
-      </c>
-      <c r="C143" t="s">
-        <v>151</v>
-      </c>
-      <c r="D143" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" t="s">
-        <v>185</v>
-      </c>
-      <c r="C144" t="s">
-        <v>151</v>
-      </c>
-      <c r="D144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" t="s">
-        <v>186</v>
-      </c>
-      <c r="C145" t="s">
-        <v>151</v>
-      </c>
-      <c r="D145" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" t="s">
-        <v>187</v>
-      </c>
-      <c r="C146" t="s">
-        <v>151</v>
-      </c>
-      <c r="D146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>151</v>
-      </c>
-      <c r="B147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C147" t="s">
-        <v>151</v>
-      </c>
-      <c r="D147" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>190</v>
-      </c>
-      <c r="B148" t="s">
-        <v>189</v>
-      </c>
-      <c r="C148" t="s">
-        <v>190</v>
-      </c>
-      <c r="D148" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>191</v>
-      </c>
-      <c r="C149" t="s">
-        <v>151</v>
-      </c>
-      <c r="D149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>190</v>
-      </c>
-      <c r="B150" t="s">
-        <v>192</v>
-      </c>
-      <c r="C150" t="s">
-        <v>190</v>
-      </c>
-      <c r="D150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>193</v>
-      </c>
-      <c r="C151" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>194</v>
-      </c>
-      <c r="C152" t="s">
-        <v>151</v>
-      </c>
-      <c r="D152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>195</v>
-      </c>
-      <c r="C153" t="s">
-        <v>151</v>
-      </c>
-      <c r="D153" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>196</v>
-      </c>
-      <c r="C154" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" t="s">
-        <v>151</v>
-      </c>
-      <c r="D155" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" t="s">
-        <v>198</v>
-      </c>
-      <c r="C156" t="s">
-        <v>151</v>
-      </c>
-      <c r="D156" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>151</v>
-      </c>
-      <c r="B157" t="s">
-        <v>199</v>
-      </c>
-      <c r="C157" t="s">
-        <v>151</v>
-      </c>
-      <c r="D157" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>151</v>
-      </c>
-      <c r="B158" t="s">
-        <v>200</v>
-      </c>
-      <c r="C158" t="s">
-        <v>151</v>
-      </c>
-      <c r="D158" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>151</v>
-      </c>
-      <c r="B159" t="s">
-        <v>201</v>
-      </c>
-      <c r="C159" t="s">
-        <v>151</v>
-      </c>
-      <c r="D159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>151</v>
-      </c>
-      <c r="B160" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" t="s">
-        <v>151</v>
-      </c>
-      <c r="D160" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>151</v>
-      </c>
-      <c r="B161" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" t="s">
-        <v>151</v>
-      </c>
-      <c r="D161" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>151</v>
-      </c>
-      <c r="B162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C162" t="s">
-        <v>151</v>
-      </c>
-      <c r="D162" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>151</v>
-      </c>
-      <c r="B163" t="s">
-        <v>205</v>
-      </c>
-      <c r="C163" t="s">
-        <v>151</v>
-      </c>
-      <c r="D163" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>151</v>
-      </c>
-      <c r="B164" t="s">
         <v>206</v>
       </c>
-      <c r="C164" t="s">
-        <v>151</v>
-      </c>
-      <c r="D164" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>148</v>
-      </c>
-      <c r="B165" t="s">
-        <v>207</v>
-      </c>
-      <c r="C165" t="s">
-        <v>148</v>
-      </c>
-      <c r="D165" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>151</v>
-      </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="122" spans="1:9" ht="15">
+      <c r="A122" s="3">
+        <v>70105006</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C166" t="s">
-        <v>151</v>
-      </c>
-      <c r="D166" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>151</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C167" t="s">
-        <v>151</v>
-      </c>
-      <c r="D167" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>151</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="E122" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C168" t="s">
-        <v>151</v>
-      </c>
-      <c r="D168" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>151</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="8">
+        <v>70608009</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C169" t="s">
-        <v>151</v>
-      </c>
-      <c r="D169" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C170" t="s">
-        <v>151</v>
-      </c>
-      <c r="D170" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>151</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="E123" s="9">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="1:9" ht="15">
+      <c r="A124" s="8">
+        <v>70608010</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C171" t="s">
-        <v>151</v>
-      </c>
-      <c r="D171" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>151</v>
-      </c>
-      <c r="B172" t="s">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E124" s="9">
+        <v>1</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" s="8">
+        <v>70607030</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C172" t="s">
-        <v>151</v>
-      </c>
-      <c r="D172" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>151</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C173" t="s">
-        <v>151</v>
-      </c>
-      <c r="D173" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>151</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="E125" s="9">
+        <v>6</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C174" t="s">
-        <v>151</v>
-      </c>
-      <c r="D174" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>151</v>
-      </c>
-      <c r="B175" t="s">
-        <v>217</v>
-      </c>
-      <c r="C175" t="s">
-        <v>151</v>
-      </c>
-      <c r="D175" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>190</v>
-      </c>
-      <c r="B176" t="s">
-        <v>218</v>
-      </c>
-      <c r="C176" t="s">
-        <v>190</v>
-      </c>
-      <c r="D176" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>148</v>
-      </c>
-      <c r="B177" t="s">
-        <v>219</v>
-      </c>
-      <c r="C177" t="s">
-        <v>148</v>
-      </c>
-      <c r="D177" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>151</v>
-      </c>
-      <c r="B178" t="s">
-        <v>220</v>
-      </c>
-      <c r="C178" t="s">
-        <v>151</v>
-      </c>
-      <c r="D178" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" t="s">
-        <v>221</v>
-      </c>
-      <c r="C179" t="s">
-        <v>151</v>
-      </c>
-      <c r="D179" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>151</v>
-      </c>
-      <c r="B180" t="s">
-        <v>222</v>
-      </c>
-      <c r="C180" t="s">
-        <v>151</v>
-      </c>
-      <c r="D180" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>151</v>
-      </c>
-      <c r="B181" t="s">
-        <v>223</v>
-      </c>
-      <c r="C181" t="s">
-        <v>151</v>
-      </c>
-      <c r="D181" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>151</v>
-      </c>
-      <c r="B182" t="s">
-        <v>224</v>
-      </c>
-      <c r="C182" t="s">
-        <v>151</v>
-      </c>
-      <c r="D182" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>151</v>
-      </c>
-      <c r="B183" t="s">
-        <v>225</v>
-      </c>
-      <c r="C183" t="s">
-        <v>151</v>
-      </c>
-      <c r="D183" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>151</v>
-      </c>
-      <c r="B184" t="s">
-        <v>226</v>
-      </c>
-      <c r="C184" t="s">
-        <v>151</v>
-      </c>
-      <c r="D184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>151</v>
-      </c>
-      <c r="B185" t="s">
-        <v>227</v>
-      </c>
-      <c r="C185" t="s">
-        <v>151</v>
-      </c>
-      <c r="D185" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>151</v>
-      </c>
-      <c r="B186" t="s">
-        <v>228</v>
-      </c>
-      <c r="C186" t="s">
-        <v>151</v>
-      </c>
-      <c r="D186" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>151</v>
-      </c>
-      <c r="B187" t="s">
-        <v>229</v>
-      </c>
-      <c r="C187" t="s">
-        <v>151</v>
-      </c>
-      <c r="D187" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" t="s">
-        <v>230</v>
-      </c>
-      <c r="C188" t="s">
-        <v>190</v>
-      </c>
-      <c r="D188" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>151</v>
-      </c>
-      <c r="B189" t="s">
-        <v>231</v>
-      </c>
-      <c r="C189" t="s">
-        <v>151</v>
-      </c>
-      <c r="D189" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>151</v>
-      </c>
-      <c r="B190" t="s">
-        <v>232</v>
-      </c>
-      <c r="C190" t="s">
-        <v>151</v>
-      </c>
-      <c r="D190" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>151</v>
-      </c>
-      <c r="B191" t="s">
-        <v>233</v>
-      </c>
-      <c r="C191" t="s">
-        <v>151</v>
-      </c>
-      <c r="D191" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>151</v>
-      </c>
-      <c r="B192" t="s">
-        <v>234</v>
-      </c>
-      <c r="C192" t="s">
-        <v>151</v>
-      </c>
-      <c r="D192" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>151</v>
-      </c>
-      <c r="B193" t="s">
-        <v>235</v>
-      </c>
-      <c r="C193" t="s">
-        <v>151</v>
-      </c>
-      <c r="D193" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>151</v>
-      </c>
-      <c r="B194" t="s">
-        <v>236</v>
-      </c>
-      <c r="C194" t="s">
-        <v>151</v>
-      </c>
-      <c r="D194" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>148</v>
-      </c>
-      <c r="B195" t="s">
-        <v>237</v>
-      </c>
-      <c r="C195" t="s">
-        <v>148</v>
-      </c>
-      <c r="D195" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>151</v>
-      </c>
-      <c r="B196" t="s">
-        <v>238</v>
-      </c>
-      <c r="C196" t="s">
-        <v>151</v>
-      </c>
-      <c r="D196" t="s">
-        <v>149</v>
-      </c>
+      <c r="I125" s="7"/>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange password="CC7D" sqref="E122:E125" name="区域2_1_2_2"/>
+  </protectedRanges>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B122:H125">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND(COUNTIF(#REF!,B122)+COUNTIF(#REF!,B122)+COUNTIF(#REF!,B122)+COUNTIF(#REF!,B122)+COUNTIF(#REF!,B122)+COUNTIF(#REF!,B122)&gt;1,NOT(ISBLANK(B122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:H125">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(COUNTIF(#REF!, B122)+COUNTIF(#REF!, B122)&gt;1,NOT(ISBLANK(B122)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>"D=D"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>